--- a/02_MasterWifoMannheim/99_Backup/Course61.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course61.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D0DB4B639A201159AE10345B0DFC7B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9614C761-E20B-4727-9FDB-B19540EAEE2D}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>TAX 620 Applied Empirical Research: Methods and Practical Implementation</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Students gain practical experience in performing empirical work and are provided an overview of the most important methods and approaches for applied empirical research. One part of the course focuses on hands-on empirical applications and students learn how to conduct their own empirical analysis. For this purpose, students are introduced to the usage of a statistical software package (“R”) and to the access and analysis of large data sets (in particular firm databases sets such as Amadeus or from research in the field of taxation. This part of the course is very practically oriented. The other part of the course teaches the most important empirical methods and approaches to estimate causal effects. These include, but are not restricted to, randomized experiments, variables and regression discontinuity design. The focus is on understanding the advantages and disadvantages of the available econometric methods and less on a highly technical presentation. Illustrative examples will always be from the field of taxation. This part of the course complements the empirical-application part of the course: the methods taught in this part are practically implemented in the other (applied-empirics) part of the course Overall, the course equips students with skills on data handling, software, coding, and methodological aspects in the context of empirical work. These skills are very valuable for data-focused (big data) work both in industry and academia. The course is generally also suited for students without significant background or interest in taxation; examples will be from taxation, but the taught methods and empirical applications generalize beyond tax topics. To receive a grade, students are required to conduct an independent empirical project using statistical software and real-world data (either an own research idea or a replication of an existing research paper). results from their empirical analysis and they are asked to present the results from their empirical project in class.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>- Hands-on practice of empirical analysis using statistical software and data. - Overview of most important methods and approaches for applied empirical research.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture</t>
-  </si>
-  <si>
-    <t>4 10</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Term paper based on own research project and presentation in class</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Philipp Dörrenberg / Prof. Dr. Johannes Voget</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M</t>
-  </si>
-  <si>
-    <t>Mathematical and Statistical Foundations (MSF)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TAX 620 Applied Empirical Research: Methods and Practical Implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Students gain practical experience in performing empirical work and are provided an overview of the most important methods and approaches for applied empirical research. One part of the course focuses on hands-on empirical applications and students learn how to conduct their own empirical analysis. For this purpose, students are introduced to the usage of a statistical software package (“R”) and to the access and analysis of large data sets (in particular firm databases sets such as Amadeus or from research in the field of taxation. This part of the course is very practically oriented. The other part of the course teaches the most important empirical methods and approaches to estimate causal effects. These include, but are not restricted to, randomized experiments, variables and regression discontinuity design. The focus is on understanding the advantages and disadvantages of the available econometric methods and less on a highly technical presentation. Illustrative examples will always be from the field of taxation. This part of the course complements the empirical-application part of the course: the methods taught in this part are practically implemented in the other (applied-empirics) part of the course Overall, the course equips students with skills on data handling, software, coding, and methodological aspects in the context of empirical work. These skills are very valuable for data-focused (big data) work both in industry and academia. The course is generally also suited for students without significant background or interest in taxation; examples will be from taxation, but the taught methods and empirical applications generalize beyond tax topics. To receive a grade, students are required to conduct an independent empirical project using statistical software and real-world data (either an own research idea or a replication of an existing research paper). results from their empirical analysis and they are asked to present the results from their empirical project in class.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>- Hands-on practice of empirical analysis using statistical software and data. - Overview of most important methods and approaches for applied empirical research.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mathematical and Statistical Foundations (MSF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Term paper based on own research project and presentation in class</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Philipp Dörrenberg / Prof. Dr. Johannes Voget</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M</t>
+        </is>
       </c>
     </row>
   </sheetData>
